--- a/data/balance_sheet/3digits/total/032_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/032_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>032-Aquaculture</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>032-Aquaculture</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,132 +915,152 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
-        <v>306275.08098</v>
+        <v>309378.62058</v>
       </c>
       <c r="D5" s="32" t="n">
-        <v>329473.70269</v>
+        <v>333913.97081</v>
       </c>
       <c r="E5" s="32" t="n">
-        <v>462596.0900499999</v>
+        <v>468520.56366</v>
       </c>
       <c r="F5" s="33" t="n">
-        <v>535269.0517899999</v>
+        <v>542437.45839</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>739959.6575699999</v>
+        <v>751815.9462</v>
       </c>
       <c r="H5" s="33" t="n">
         <v>1058331.7966</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>1425622.71509</v>
+        <v>1426847.29406</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>1076962.55008</v>
+        <v>1084422.32064</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>1179724.61517</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>1708427.46691</v>
+        <v>1708427.72045</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>1913893.91164</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>1925585.78764</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>2433690.216</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>10662.60494</v>
+        <v>10706.69518</v>
       </c>
       <c r="D6" s="23" t="n">
-        <v>23507.63268</v>
+        <v>23762.15376</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>28325.08401</v>
+        <v>28332.80518</v>
       </c>
       <c r="F6" s="33" t="n">
-        <v>37735.22795</v>
+        <v>37743.6945</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>66234.00086</v>
+        <v>66269.84637</v>
       </c>
       <c r="H6" s="33" t="n">
         <v>77305.23705</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>122785.92424</v>
+        <v>122875.40063</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>91479.87827</v>
+        <v>91691.93112000001</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>182747.25694</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>169156.06504</v>
+        <v>169163.59534</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>123350.14593</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>122600.98562</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>82150.57399999999</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
-        <v>5852.67687</v>
+        <v>5858.67446</v>
       </c>
       <c r="D7" s="22" t="n">
-        <v>7983.41898</v>
+        <v>8166.76596</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>10310.71028</v>
+        <v>10312.25842</v>
       </c>
       <c r="F7" s="21" t="n">
-        <v>13100.40902</v>
+        <v>13106.20904</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>15681.78498</v>
+        <v>15709.34388</v>
       </c>
       <c r="H7" s="21" t="n">
         <v>19076.4919</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>20696.23412</v>
+        <v>20699.21984000001</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>6557.08225</v>
+        <v>6554.63945</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>10944.98471</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>8035.4865</v>
+        <v>8035.668370000001</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>9579.111349999999</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>9608.49293</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>11696.195</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>15143.82088</v>
@@ -1604,7 +1069,7 @@
         <v>19646.90144</v>
       </c>
       <c r="E8" s="22" t="n">
-        <v>22206.08116</v>
+        <v>22206.08116000001</v>
       </c>
       <c r="F8" s="21" t="n">
         <v>25391.86508</v>
@@ -1616,7 +1081,7 @@
         <v>50519.71831</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>79791.5334</v>
+        <v>79791.53339999999</v>
       </c>
       <c r="J8" s="21" t="n">
         <v>47790.5108</v>
@@ -1628,54 +1093,64 @@
         <v>31537.27092</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>16290.05143</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>16310.80143</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>19121.207</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
-        <v>6481.217630000001</v>
+        <v>6519.31028</v>
       </c>
       <c r="D9" s="22" t="n">
-        <v>8582.334629999999</v>
+        <v>8653.50873</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>12425.4702</v>
+        <v>12431.64323</v>
       </c>
       <c r="F9" s="21" t="n">
-        <v>12440.23617</v>
+        <v>12442.9027</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>33421.3523</v>
+        <v>33429.63891</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>23482.6072</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>48686.25263</v>
+        <v>48772.7433</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>59205.93845</v>
+        <v>59420.4341</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>176346.69816</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>187137.41253</v>
+        <v>187144.76096</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>130769.55671</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>131084.29382</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>120100.968</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>16867.87552</v>
@@ -1708,20 +1183,25 @@
         <v>57810.04565</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>33626.02804999999</v>
-      </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+        <v>34740.05705</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>68969.98299999999</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>52.76508</v>
       </c>
       <c r="D11" s="22" t="n">
-        <v>479.8614200000001</v>
+        <v>479.86142</v>
       </c>
       <c r="E11" s="22" t="n">
         <v>152.58029</v>
@@ -1733,7 +1213,7 @@
         <v>499.24421</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>88.98339</v>
+        <v>88.98338999999999</v>
       </c>
       <c r="I11" s="22" t="n">
         <v>158.8072</v>
@@ -1750,12 +1230,17 @@
       <c r="M11" s="22" t="n">
         <v>337.45449</v>
       </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+      <c r="N11" s="22" t="n">
+        <v>202.187</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>311.48163</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>24518.11077</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>7335.481</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1825,17 +1315,22 @@
         <v>0</v>
       </c>
       <c r="L13" s="22" t="n">
-        <v>9643.595379999999</v>
+        <v>9643.595380000001</v>
       </c>
       <c r="M13" s="22" t="n">
-        <v>4783.47468</v>
-      </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+        <v>4783.474679999999</v>
+      </c>
+      <c r="N13" s="22" t="n">
+        <v>7242.341</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>0</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>18961.7656</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>770.8695</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>311.48163</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>2.00099</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>92.626</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,36 +1500,41 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>95978.92972999999</v>
+        <v>96165.73194</v>
       </c>
       <c r="D18" s="23" t="n">
-        <v>99516.58031999999</v>
+        <v>99980.04185000001</v>
       </c>
       <c r="E18" s="23" t="n">
-        <v>138306.19869</v>
+        <v>139023.31146</v>
       </c>
       <c r="F18" s="33" t="n">
-        <v>151008.49398</v>
+        <v>151688.95523</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>240337.55806</v>
+        <v>241288.87636</v>
       </c>
       <c r="H18" s="33" t="n">
         <v>262179.40572</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>380367.84073</v>
+        <v>380497.76127</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>343078.95646</v>
+        <v>348127.51401</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>330551.07215</v>
@@ -2028,35 +1543,40 @@
         <v>368811.40168</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>404747.65779</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>405728.01016</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>720830.118</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
-        <v>70996.83845000001</v>
+        <v>71183.64065999999</v>
       </c>
       <c r="D19" s="22" t="n">
-        <v>83668.85706000001</v>
+        <v>84132.31859000001</v>
       </c>
       <c r="E19" s="22" t="n">
-        <v>115127.62188</v>
+        <v>115844.73465</v>
       </c>
       <c r="F19" s="21" t="n">
-        <v>129708.36476</v>
+        <v>130388.82601</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>184857.08439</v>
+        <v>185808.40269</v>
       </c>
       <c r="H19" s="21" t="n">
         <v>171668.60184</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>246888.42335</v>
+        <v>247018.34389</v>
       </c>
       <c r="J19" s="21" t="n">
         <v>238817.73164</v>
@@ -2065,17 +1585,22 @@
         <v>236545.61315</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>268714.6331799999</v>
+        <v>268714.63318</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>340668.81829</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>341649.14686</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>660194.144</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>18133.99787</v>
@@ -2093,16 +1618,16 @@
         <v>43306.59922</v>
       </c>
       <c r="H20" s="21" t="n">
-        <v>73166.28970000001</v>
+        <v>73166.28969999999</v>
       </c>
       <c r="I20" s="22" t="n">
         <v>123035.20542</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>95472.29659999999</v>
+        <v>100489.71861</v>
       </c>
       <c r="K20" s="22" t="n">
-        <v>84153.00792</v>
+        <v>84153.00791999999</v>
       </c>
       <c r="L20" s="22" t="n">
         <v>83007.1093</v>
@@ -2110,12 +1635,17 @@
       <c r="M20" s="22" t="n">
         <v>48105.18706</v>
       </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+      <c r="N20" s="22" t="n">
+        <v>44245.327</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>1557.87824</v>
@@ -2210,7 +1750,7 @@
         <v>193.61086</v>
       </c>
       <c r="G23" s="22" t="n">
-        <v>4652.788550000001</v>
+        <v>4652.78855</v>
       </c>
       <c r="H23" s="21" t="n">
         <v>5790.09775</v>
@@ -2228,20 +1768,25 @@
         <v>1405.12094</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>1018.07122</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>1018.09502</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>1354.533</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>3676.33142</v>
       </c>
       <c r="D24" s="22" t="n">
-        <v>4225.885199999999</v>
+        <v>4225.885200000001</v>
       </c>
       <c r="E24" s="22" t="n">
         <v>4847.627820000001</v>
@@ -2256,26 +1801,31 @@
         <v>7090.193730000001</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>4093.695270000001</v>
+        <v>4093.69527</v>
       </c>
       <c r="J24" s="21" t="n">
         <v>4279.01198</v>
       </c>
       <c r="K24" s="22" t="n">
-        <v>3863.803620000001</v>
+        <v>3863.80362</v>
       </c>
       <c r="L24" s="22" t="n">
         <v>5381.839150000001</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>6203.0836</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>6203.083600000001</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>3646.997</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>4108.79021</v>
@@ -2284,10 +1834,10 @@
         <v>5506.35083</v>
       </c>
       <c r="E25" s="22" t="n">
-        <v>5750.00698</v>
+        <v>5750.006979999999</v>
       </c>
       <c r="F25" s="21" t="n">
-        <v>8770.093879999999</v>
+        <v>8770.09388</v>
       </c>
       <c r="G25" s="22" t="n">
         <v>11022.69625</v>
@@ -2299,7 +1849,7 @@
         <v>11788.46003</v>
       </c>
       <c r="J25" s="21" t="n">
-        <v>9617.540279999999</v>
+        <v>10766.30385</v>
       </c>
       <c r="K25" s="22" t="n">
         <v>17505.84477</v>
@@ -2310,18 +1860,23 @@
       <c r="M25" s="22" t="n">
         <v>32287.39385</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>40888.96</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>2494.90646</v>
       </c>
       <c r="D26" s="22" t="n">
-        <v>3541.828189999999</v>
+        <v>3541.828190000001</v>
       </c>
       <c r="E26" s="22" t="n">
         <v>3708.17175</v>
@@ -2333,13 +1888,13 @@
         <v>6865.55008</v>
       </c>
       <c r="H26" s="21" t="n">
-        <v>7070.92479</v>
+        <v>7070.924789999999</v>
       </c>
       <c r="I26" s="22" t="n">
         <v>6963.96126</v>
       </c>
       <c r="J26" s="21" t="n">
-        <v>6279.9308</v>
+        <v>7397.55883</v>
       </c>
       <c r="K26" s="22" t="n">
         <v>12731.44423</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>23534.89623000001</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>29499.843</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>9967.71192</v>
@@ -2370,7 +1930,7 @@
         <v>16079.48169</v>
       </c>
       <c r="G27" s="23" t="n">
-        <v>19200.72258</v>
+        <v>19810.3555</v>
       </c>
       <c r="H27" s="33" t="n">
         <v>16446.95219</v>
@@ -2379,23 +1939,28 @@
         <v>35747.37485</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>36484.90482</v>
+        <v>36729.90482</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>30388.64676</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>44862.11593000001</v>
+        <v>44862.11593</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>52429.25749</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>52404.37278</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>65949.72900000001</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>2110.05489</v>
@@ -2407,7 +1972,7 @@
         <v>4425.09421</v>
       </c>
       <c r="F28" s="21" t="n">
-        <v>6567.89822</v>
+        <v>6567.898220000001</v>
       </c>
       <c r="G28" s="22" t="n">
         <v>6761.07834</v>
@@ -2419,23 +1984,28 @@
         <v>15715.79086</v>
       </c>
       <c r="J28" s="21" t="n">
-        <v>9947.72515</v>
+        <v>10192.72515</v>
       </c>
       <c r="K28" s="22" t="n">
-        <v>8527.126559999999</v>
+        <v>8527.126560000001</v>
       </c>
       <c r="L28" s="22" t="n">
         <v>10181.9775</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>15926.5007</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>15926.50071</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>24466.711</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>41.18345</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>41.183</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>5.88022</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>1.49851</v>
@@ -2550,18 +2130,23 @@
       <c r="M31" s="22" t="n">
         <v>180.76244</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>98.26300000000001</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
-        <v>7850.2783</v>
+        <v>7850.278300000001</v>
       </c>
       <c r="D32" s="22" t="n">
-        <v>4838.60168</v>
+        <v>4838.601680000001</v>
       </c>
       <c r="E32" s="22" t="n">
         <v>10016.20381</v>
@@ -2570,7 +2155,7 @@
         <v>9351.276609999999</v>
       </c>
       <c r="G32" s="22" t="n">
-        <v>12378.44953</v>
+        <v>12988.08245</v>
       </c>
       <c r="H32" s="21" t="n">
         <v>10976.72439</v>
@@ -2585,17 +2170,22 @@
         <v>21679.15449</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>34561.45497999999</v>
+        <v>34561.45498</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>36280.8109</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>36255.92618</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>41343.572</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,36 +2310,41 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
-        <v>164695.17013</v>
+        <v>167262.33934</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>166794.83986</v>
+        <v>170139.23091</v>
       </c>
       <c r="E36" s="23" t="n">
-        <v>243373.67833</v>
+        <v>247885.05309</v>
       </c>
       <c r="F36" s="33" t="n">
-        <v>287234.91513</v>
+        <v>292987.2520100001</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>366074.50141</v>
+        <v>375355.01268</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>625829.04247</v>
+        <v>625829.0424699999</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>789964.11081</v>
+        <v>790942.3386700001</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>569453.23557</v>
+        <v>571282.5909299999</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>602011.50445</v>
@@ -2748,35 +2353,40 @@
         <v>1064681.712</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>1256034.09303</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>1267488.4527</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>1500227.112</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
-        <v>41027.61842</v>
+        <v>41159.08997</v>
       </c>
       <c r="D37" s="22" t="n">
-        <v>29476.08655</v>
+        <v>29607.94856</v>
       </c>
       <c r="E37" s="22" t="n">
-        <v>50685.60278</v>
+        <v>50952.59826999999</v>
       </c>
       <c r="F37" s="21" t="n">
-        <v>74656.49037999999</v>
+        <v>75014.11962</v>
       </c>
       <c r="G37" s="22" t="n">
-        <v>64270.42776</v>
+        <v>64383.09384</v>
       </c>
       <c r="H37" s="21" t="n">
         <v>40846.1417</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>63373.30718000001</v>
+        <v>63473.38625</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>79388.30381999999</v>
@@ -2788,38 +2398,43 @@
         <v>140560.98382</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>92424.56083000002</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>93421.12156</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>127302.296</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
-        <v>83445.26893000001</v>
+        <v>85880.96659</v>
       </c>
       <c r="D38" s="22" t="n">
-        <v>86802.21997000001</v>
+        <v>90014.74900999998</v>
       </c>
       <c r="E38" s="22" t="n">
-        <v>115609.02927</v>
+        <v>119853.40854</v>
       </c>
       <c r="F38" s="21" t="n">
-        <v>131953.53233</v>
+        <v>136732.73997</v>
       </c>
       <c r="G38" s="22" t="n">
-        <v>212419.2174</v>
+        <v>220598.04196</v>
       </c>
       <c r="H38" s="21" t="n">
         <v>489786.6076800001</v>
       </c>
       <c r="I38" s="22" t="n">
-        <v>606880.2056100001</v>
+        <v>607134.19952</v>
       </c>
       <c r="J38" s="21" t="n">
-        <v>328333.66755</v>
+        <v>330163.0229099999</v>
       </c>
       <c r="K38" s="22" t="n">
         <v>312566.21618</v>
@@ -2828,14 +2443,19 @@
         <v>632601.7278</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>847798.89118</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>848000.9165699999</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>1085284.969</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>5988.97847</v>
@@ -2853,16 +2473,16 @@
         <v>30839.91921</v>
       </c>
       <c r="H39" s="21" t="n">
-        <v>33597.43784000001</v>
+        <v>33597.43784</v>
       </c>
       <c r="I39" s="22" t="n">
-        <v>50406.26211</v>
+        <v>50481.46211</v>
       </c>
       <c r="J39" s="21" t="n">
         <v>59723.48669</v>
       </c>
       <c r="K39" s="22" t="n">
-        <v>92428.14193000001</v>
+        <v>92428.14193</v>
       </c>
       <c r="L39" s="22" t="n">
         <v>123520.27613</v>
@@ -2870,12 +2490,17 @@
       <c r="M39" s="22" t="n">
         <v>126232.20506</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>126500.613</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>13555.45901</v>
@@ -2884,7 +2509,7 @@
         <v>17658.49975</v>
       </c>
       <c r="E40" s="22" t="n">
-        <v>33456.3231</v>
+        <v>33456.32309999999</v>
       </c>
       <c r="F40" s="21" t="n">
         <v>27232.7281</v>
@@ -2908,14 +2533,19 @@
         <v>107786.05215</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>79046.62487</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>79065.14339</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>73536.894</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>6840.117099999999</v>
@@ -2942,20 +2572,25 @@
         <v>3273.63535</v>
       </c>
       <c r="K41" s="22" t="n">
-        <v>5499.51447</v>
+        <v>5499.514470000001</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>7328.564810000001</v>
+        <v>7328.56481</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>334.83833</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>10572.09336</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>13362.955</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>13837.7282</v>
@@ -3007,35 +2647,40 @@
         <v>23197.81948</v>
       </c>
       <c r="F43" s="21" t="n">
-        <v>22922.64393</v>
+        <v>23538.14393</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>26555.34798</v>
+        <v>27544.36861</v>
       </c>
       <c r="H43" s="21" t="n">
         <v>30597.9772</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>47645.34486</v>
+        <v>48194.29973999999</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>42904.83282</v>
+        <v>42904.83282000001</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>28168.8115</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>52884.10729000001</v>
+        <v>52884.10729</v>
       </c>
       <c r="M43" s="22" t="n">
         <v>110196.97276</v>
       </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+      <c r="N43" s="22" t="n">
+        <v>74239.38499999999</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>612.9645</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>199.36306</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>464.508</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>612.9645</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>199.36306</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>464.508</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>3554.09066</v>
@@ -3207,7 +2872,7 @@
         <v>6743.74684</v>
       </c>
       <c r="F48" s="45" t="n">
-        <v>5204.813349999999</v>
+        <v>5204.81335</v>
       </c>
       <c r="G48" s="46" t="n">
         <v>6226.134789999999</v>
@@ -3219,7 +2884,7 @@
         <v>24778.276</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>5840.610350000001</v>
+        <v>5840.61035</v>
       </c>
       <c r="K48" s="46" t="n">
         <v>7848.644979999999</v>
@@ -3228,17 +2893,22 @@
         <v>8208.706050000001</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>9335.15554</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>9338.528050000001</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>8029.378</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
-        <v>753.61086</v>
+        <v>753.6108600000001</v>
       </c>
       <c r="D49" s="22" t="n">
         <v>1336.41296</v>
@@ -3265,17 +2935,22 @@
         <v>6324.486279999999</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>6963.725659999999</v>
+        <v>6963.72566</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>7705.18614</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>7708.55865</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>5705.15</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>2800.4798</v>
@@ -3290,7 +2965,7 @@
         <v>4614.963839999999</v>
       </c>
       <c r="G50" s="22" t="n">
-        <v>4350.42511</v>
+        <v>4350.425109999999</v>
       </c>
       <c r="H50" s="21" t="n">
         <v>9145.08186</v>
@@ -3310,92 +2985,107 @@
       <c r="M50" s="22" t="n">
         <v>1629.9694</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>2324.228</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>20492.12747</v>
+        <v>20797.60541</v>
       </c>
       <c r="D51" s="46" t="n">
-        <v>22676.35165</v>
+        <v>23054.24611</v>
       </c>
       <c r="E51" s="46" t="n">
-        <v>30574.95276</v>
+        <v>31263.21767</v>
       </c>
       <c r="F51" s="45" t="n">
-        <v>35529.622</v>
+        <v>36256.76392</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>40524.74857</v>
+        <v>41503.7292</v>
       </c>
       <c r="H51" s="45" t="n">
         <v>63908.44312</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>71695.89029</v>
+        <v>71722.84447</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>30576.97189</v>
+        <v>30701.77669</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>25767.66917</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>44699.52237999999</v>
+        <v>44692.24561999999</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>43280.12803</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>43307.9645</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>48703.316</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
-        <v>18373.44908</v>
+        <v>18678.92702</v>
       </c>
       <c r="D52" s="22" t="n">
-        <v>19171.64439</v>
+        <v>19549.53885</v>
       </c>
       <c r="E52" s="22" t="n">
-        <v>26908.82214</v>
+        <v>27597.08705</v>
       </c>
       <c r="F52" s="21" t="n">
-        <v>29859.99047</v>
+        <v>30587.13239</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>34985.63466</v>
+        <v>35961.86983</v>
       </c>
       <c r="H52" s="21" t="n">
         <v>47203.16029</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>47377.63269</v>
+        <v>47395.50611</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>21836.35163</v>
+        <v>21961.15643</v>
       </c>
       <c r="K52" s="22" t="n">
-        <v>19562.40041</v>
+        <v>19562.40040999999</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>29713.00634</v>
+        <v>29713.07801</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>33255.11603</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>33269.87488</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>37254.829</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>657.11785</v>
@@ -3430,12 +3120,17 @@
       <c r="M53" s="22" t="n">
         <v>1.11372</v>
       </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+      <c r="N53" s="22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>90.52522</v>
@@ -3444,7 +3139,7 @@
         <v>1196.42191</v>
       </c>
       <c r="E54" s="22" t="n">
-        <v>353.83747</v>
+        <v>353.8374700000001</v>
       </c>
       <c r="F54" s="21" t="n">
         <v>634.46087</v>
@@ -3453,7 +3148,7 @@
         <v>2240.85595</v>
       </c>
       <c r="H54" s="21" t="n">
-        <v>9754.885890000001</v>
+        <v>9754.88589</v>
       </c>
       <c r="I54" s="22" t="n">
         <v>16431.25587</v>
@@ -3462,7 +3157,7 @@
         <v>488.65172</v>
       </c>
       <c r="K54" s="22" t="n">
-        <v>553.2191499999999</v>
+        <v>553.21915</v>
       </c>
       <c r="L54" s="22" t="n">
         <v>507.3173</v>
@@ -3470,12 +3165,17 @@
       <c r="M54" s="22" t="n">
         <v>1144.70844</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>2205.969</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>208.56775</v>
@@ -3490,13 +3190,13 @@
         <v>1650.78138</v>
       </c>
       <c r="G55" s="22" t="n">
-        <v>986.52783</v>
+        <v>989.27329</v>
       </c>
       <c r="H55" s="21" t="n">
         <v>1923.57041</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>1465.60836</v>
+        <v>1474.68912</v>
       </c>
       <c r="J55" s="21" t="n">
         <v>1936.636</v>
@@ -3508,17 +3208,22 @@
         <v>9708.969349999999</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>5937.87871</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>5950.956329999999</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>4400.383</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
-        <v>911.1716600000001</v>
+        <v>911.1716600000002</v>
       </c>
       <c r="D56" s="22" t="n">
         <v>1066.34045</v>
@@ -3533,7 +3238,7 @@
         <v>1477.01434</v>
       </c>
       <c r="H56" s="21" t="n">
-        <v>4664.847680000001</v>
+        <v>4664.84768</v>
       </c>
       <c r="I56" s="22" t="n">
         <v>6230.80475</v>
@@ -3550,12 +3255,17 @@
       <c r="M56" s="22" t="n">
         <v>2471.1232</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>4292.848</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>38.84744</v>
@@ -3573,7 +3283,7 @@
         <v>60.95838</v>
       </c>
       <c r="H57" s="21" t="n">
-        <v>61.11485999999999</v>
+        <v>61.11486</v>
       </c>
       <c r="I57" s="22" t="n">
         <v>143.88471</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>426.84284</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>385.375</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>212.44847</v>
@@ -3659,22 +3379,27 @@
         <v>36.93452000000001</v>
       </c>
       <c r="J59" s="21" t="n">
-        <v>75.87077000000001</v>
+        <v>75.87076999999999</v>
       </c>
       <c r="K59" s="22" t="n">
         <v>79.1977</v>
       </c>
       <c r="L59" s="22" t="n">
-        <v>159.72502</v>
+        <v>152.37659</v>
       </c>
       <c r="M59" s="22" t="n">
         <v>43.34509</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>157.112</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,76 +3434,86 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
-        <v>68612.37793999999</v>
+        <v>69256.34486</v>
       </c>
       <c r="D61" s="36" t="n">
-        <v>73111.66619</v>
+        <v>73862.97173999999</v>
       </c>
       <c r="E61" s="36" t="n">
-        <v>91440.54953999999</v>
+        <v>92861.61825</v>
       </c>
       <c r="F61" s="37" t="n">
-        <v>105165.2298</v>
+        <v>106245.05334</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>156299.86913</v>
+        <v>157259.80854</v>
       </c>
       <c r="H61" s="37" t="n">
         <v>179694.55487</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>246820.88313</v>
+        <v>246964.10821</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>269630.98367</v>
+        <v>272085.82908</v>
       </c>
       <c r="K61" s="36" t="n">
-        <v>330235.2627899999</v>
+        <v>330235.26279</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>514004.50772</v>
+        <v>514004.5077200001</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>640775.0502000001</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>641391.32456</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>1010714.147</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
-        <v>3039.56378</v>
+        <v>3040.01378</v>
       </c>
       <c r="D62" s="36" t="n">
-        <v>2693.79167</v>
+        <v>2694.24167</v>
       </c>
       <c r="E62" s="36" t="n">
-        <v>2518.33699</v>
+        <v>2526.88699</v>
       </c>
       <c r="F62" s="37" t="n">
-        <v>2428.10991</v>
+        <v>2436.66591</v>
       </c>
       <c r="G62" s="36" t="n">
-        <v>3021.94896</v>
+        <v>3031.95682</v>
       </c>
       <c r="H62" s="37" t="n">
         <v>1148.52825</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>1169.90233</v>
+        <v>1175.05707</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>2530.63997</v>
+        <v>2530.89997</v>
       </c>
       <c r="K62" s="36" t="n">
         <v>1502.04257</v>
@@ -3789,12 +3524,17 @@
       <c r="M62" s="36" t="n">
         <v>2125.0194</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>1962.368</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>2981.59828</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>108.79338</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>108.793</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>1638.69629</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>1268.696</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,36 +3704,41 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
-        <v>57.9655</v>
+        <v>58.4155</v>
       </c>
       <c r="D67" s="22" t="n">
-        <v>55.46999</v>
+        <v>55.91999</v>
       </c>
       <c r="E67" s="22" t="n">
-        <v>99.63849</v>
+        <v>108.18849</v>
       </c>
       <c r="F67" s="21" t="n">
-        <v>108.67805</v>
+        <v>117.23405</v>
       </c>
       <c r="G67" s="22" t="n">
-        <v>110.29308</v>
+        <v>120.30094</v>
       </c>
       <c r="H67" s="21" t="n">
         <v>154.44349</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>175.81757</v>
+        <v>180.97231</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>199.4853</v>
+        <v>199.7453</v>
       </c>
       <c r="K67" s="22" t="n">
         <v>196.01534</v>
@@ -3989,12 +3749,17 @@
       <c r="M67" s="22" t="n">
         <v>377.52973</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>584.879</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>89.88624</v>
@@ -4067,14 +3837,19 @@
         <v>4385.410400000001</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>17507.30835</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>17507.79529</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>121044.784</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>85.79302</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>622.92921</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>265.41</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4138,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="J71" s="21" t="n">
-        <v>1225.9091</v>
+        <v>0</v>
       </c>
       <c r="K71" s="22" t="n">
-        <v>2380.0323</v>
+        <v>0</v>
       </c>
       <c r="L71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>3.7822</v>
@@ -4178,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="J72" s="21" t="n">
-        <v>2.4</v>
+        <v>1228.3091</v>
       </c>
       <c r="K72" s="22" t="n">
-        <v>5.39541</v>
+        <v>2385.42771</v>
       </c>
       <c r="L72" s="22" t="n">
         <v>4005.03242</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>16244.31023</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>120483.374</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0.21112</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>0.0999</v>
@@ -4267,14 +4062,19 @@
         <v>102.35</v>
       </c>
       <c r="M74" s="22" t="n">
-        <v>640.0689100000001</v>
-      </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+        <v>640.55585</v>
+      </c>
+      <c r="N74" s="22" t="n">
+        <v>296</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>1506.43386</v>
@@ -4366,10 +4176,10 @@
         <v>1960.27288</v>
       </c>
       <c r="F77" s="33" t="n">
-        <v>1667.68288</v>
+        <v>1672.65665</v>
       </c>
       <c r="G77" s="23" t="n">
-        <v>16015.86992</v>
+        <v>16148.24342</v>
       </c>
       <c r="H77" s="33" t="n">
         <v>13182.1206</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>211024.11236</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>321608.852</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>2</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>584.7600600000001</v>
@@ -4486,7 +4311,7 @@
         <v>1103.85308</v>
       </c>
       <c r="F80" s="21" t="n">
-        <v>793.7630799999999</v>
+        <v>793.7630800000001</v>
       </c>
       <c r="G80" s="22" t="n">
         <v>4279.4624</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>150135.2066</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>202388.699</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>90.5</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>1269.6458</v>
@@ -4606,10 +4446,10 @@
         <v>1357.3958</v>
       </c>
       <c r="F83" s="21" t="n">
-        <v>1357.3958</v>
+        <v>1507.3958</v>
       </c>
       <c r="G83" s="22" t="n">
-        <v>1466.8808</v>
+        <v>1616.8808</v>
       </c>
       <c r="H83" s="21" t="n">
         <v>2146.0808</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>61479.40576</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>119310.653</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>349.972</v>
@@ -4646,10 +4491,10 @@
         <v>299.976</v>
       </c>
       <c r="F84" s="21" t="n">
-        <v>299.976</v>
+        <v>445.00223</v>
       </c>
       <c r="G84" s="22" t="n">
-        <v>299.97328</v>
+        <v>317.59978</v>
       </c>
       <c r="H84" s="21" t="n">
         <v>674.97328</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>500</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,36 +4649,41 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
-        <v>41448.15978</v>
+        <v>42091.16292</v>
       </c>
       <c r="D88" s="23" t="n">
-        <v>47960.26045</v>
+        <v>48711.116</v>
       </c>
       <c r="E88" s="23" t="n">
-        <v>66432.73368</v>
+        <v>67839.48539</v>
       </c>
       <c r="F88" s="33" t="n">
-        <v>83679.85950000001</v>
+        <v>84724.56898</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>84572.95492</v>
+        <v>85376.39460000001</v>
       </c>
       <c r="H88" s="33" t="n">
         <v>103470.0767</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>131938.79713</v>
+        <v>132061.98239</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>159607.56498</v>
+        <v>161307.81623</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>196738.72178</v>
@@ -4827,14 +4692,19 @@
         <v>274178.14714</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>316599.22707</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>317165.68598</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>402027.032</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>970.5669499999999</v>
@@ -4858,7 +4728,7 @@
         <v>13191.32911</v>
       </c>
       <c r="J89" s="21" t="n">
-        <v>13694.66882</v>
+        <v>13747.97058</v>
       </c>
       <c r="K89" s="22" t="n">
         <v>17059.73709</v>
@@ -4867,14 +4737,19 @@
         <v>19009.11421</v>
       </c>
       <c r="M89" s="22" t="n">
-        <v>22709.49143</v>
-      </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+        <v>22756.99869</v>
+      </c>
+      <c r="N89" s="22" t="n">
+        <v>27382.732</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>3494.25055</v>
@@ -4883,7 +4758,7 @@
         <v>2809.04974</v>
       </c>
       <c r="E90" s="22" t="n">
-        <v>2447.78438</v>
+        <v>2447.784380000001</v>
       </c>
       <c r="F90" s="21" t="n">
         <v>2994.71423</v>
@@ -4892,10 +4767,10 @@
         <v>3695.85773</v>
       </c>
       <c r="H90" s="21" t="n">
-        <v>6249.107230000001</v>
+        <v>6249.10723</v>
       </c>
       <c r="I90" s="22" t="n">
-        <v>5768.503500000001</v>
+        <v>5768.5035</v>
       </c>
       <c r="J90" s="21" t="n">
         <v>7081.41324</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>17605.24756</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>21977.077</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>4020.05457</v>
@@ -4938,7 +4818,7 @@
         <v>21245.83742</v>
       </c>
       <c r="J91" s="21" t="n">
-        <v>24995.36067</v>
+        <v>25093.97167</v>
       </c>
       <c r="K91" s="22" t="n">
         <v>33274.64834</v>
@@ -4947,38 +4827,43 @@
         <v>48668.57120000001</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>47708.90531</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>47720.94112</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>80814.386</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
-        <v>33870.69535</v>
+        <v>34880.51622999999</v>
       </c>
       <c r="D92" s="22" t="n">
-        <v>38385.75598</v>
+        <v>40032.71379</v>
       </c>
       <c r="E92" s="22" t="n">
-        <v>50412.10201</v>
+        <v>52989.51016</v>
       </c>
       <c r="F92" s="21" t="n">
-        <v>64930.49965999999</v>
+        <v>67618.8769</v>
       </c>
       <c r="G92" s="22" t="n">
-        <v>72350.10202000001</v>
+        <v>75142.39005</v>
       </c>
       <c r="H92" s="21" t="n">
         <v>93506.02041</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>128305.90073</v>
+        <v>128428.13333</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>113984.40258</v>
+        <v>118055.03011</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>145572.07992</v>
@@ -4987,94 +4872,109 @@
         <v>210988.77829</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>243531.46234</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>244286.60049</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>277563.839</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
-        <v>13051.38377</v>
+        <v>13226.89172</v>
       </c>
       <c r="D93" s="22" t="n">
-        <v>13617.32706</v>
+        <v>13812.83501</v>
       </c>
       <c r="E93" s="22" t="n">
-        <v>16803.63408</v>
+        <v>17281.48626</v>
       </c>
       <c r="F93" s="21" t="n">
-        <v>19232.76844</v>
+        <v>19710.62062</v>
       </c>
       <c r="G93" s="22" t="n">
-        <v>20196.2469</v>
+        <v>20674.09908</v>
       </c>
       <c r="H93" s="21" t="n">
         <v>23552.79617</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>35345.87426</v>
+        <v>35346.09242</v>
       </c>
       <c r="J93" s="21" t="n">
-        <v>30025.10826</v>
+        <v>31750.71474</v>
       </c>
       <c r="K93" s="22" t="n">
         <v>35479.92703</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>51098.93523999999</v>
+        <v>51098.93524</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>64622.62582000001</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>65211.37862999999</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>86198.64599999999</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
-        <v>12440.49661</v>
+        <v>12448.60347</v>
       </c>
       <c r="D94" s="22" t="n">
-        <v>10982.6507</v>
+        <v>10994.58856</v>
       </c>
       <c r="E94" s="22" t="n">
-        <v>14573.98481</v>
+        <v>14602.04829</v>
       </c>
       <c r="F94" s="21" t="n">
-        <v>18600.88653</v>
+        <v>18642.38357</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>21826.58668</v>
+        <v>21872.19009</v>
       </c>
       <c r="H94" s="21" t="n">
         <v>28401.97773</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>30282.69359</v>
+        <v>30464.01986</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>32908.91109</v>
+        <v>33323.31133</v>
       </c>
       <c r="K94" s="22" t="n">
-        <v>38885.60693000001</v>
+        <v>38885.60693</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>50560.00945000001</v>
+        <v>50560.00945</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>68448.22739</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>68469.84420000001</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>106863.925</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>1140.1269</v>
@@ -5083,7 +4983,7 @@
         <v>1128.48506</v>
       </c>
       <c r="E95" s="22" t="n">
-        <v>960.74806</v>
+        <v>960.7480599999999</v>
       </c>
       <c r="F95" s="21" t="n">
         <v>955.91945</v>
@@ -5095,7 +4995,7 @@
         <v>321.47227</v>
       </c>
       <c r="I95" s="22" t="n">
-        <v>404.91295</v>
+        <v>410.23793</v>
       </c>
       <c r="J95" s="21" t="n">
         <v>964.9004100000001</v>
@@ -5109,36 +5009,41 @@
       <c r="M95" s="22" t="n">
         <v>1423.89236</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>1716.832</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
-        <v>30713.77847</v>
+        <v>31264.21102</v>
       </c>
       <c r="D96" s="22" t="n">
-        <v>34287.96293</v>
+        <v>35391.511</v>
       </c>
       <c r="E96" s="22" t="n">
-        <v>42567.30889</v>
+        <v>44243.88099000001</v>
       </c>
       <c r="F96" s="21" t="n">
-        <v>52605.99511</v>
+        <v>54834.64455999999</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>63550.96295999999</v>
+        <v>66128.89936999998</v>
       </c>
       <c r="H96" s="21" t="n">
         <v>83434.48450000001</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>113284.73978</v>
+        <v>113593.84179</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>93388.42178</v>
+        <v>98050.71754</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>107670.66898</v>
@@ -5147,14 +5052,19 @@
         <v>139479.09329</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>174186.40882</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>175045.00075</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>230940.824</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>2076.12795</v>
@@ -5166,16 +5076,16 @@
         <v>8823.667230000001</v>
       </c>
       <c r="F97" s="21" t="n">
-        <v>8526.53377</v>
+        <v>8592.16624</v>
       </c>
       <c r="G97" s="22" t="n">
-        <v>7875.4833</v>
+        <v>7941.115769999999</v>
       </c>
       <c r="H97" s="21" t="n">
-        <v>7880.883799999999</v>
+        <v>7880.883800000001</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>8601.74192</v>
+        <v>8724.927180000001</v>
       </c>
       <c r="J97" s="21" t="n">
         <v>27213.64203</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>23391.70554</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>28027.929</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>1098.2356</v>
@@ -5221,7 +5136,7 @@
         <v>2127.57966</v>
       </c>
       <c r="K98" s="22" t="n">
-        <v>4696.128680000001</v>
+        <v>4696.12868</v>
       </c>
       <c r="L98" s="22" t="n">
         <v>2045.78368</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>1344.07814</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>2422.49</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>14358.6594</v>
@@ -5243,44 +5163,49 @@
         <v>15655.1093</v>
       </c>
       <c r="E99" s="23" t="n">
-        <v>14863.23006</v>
+        <v>14868.99706</v>
       </c>
       <c r="F99" s="33" t="n">
-        <v>14252.52621</v>
+        <v>14260.89999</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>19598.82169</v>
+        <v>19607.19547</v>
       </c>
       <c r="H99" s="33" t="n">
         <v>25792.19143</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>38356.21329000001</v>
+        <v>38371.02134</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>25631.7931</v>
+        <v>26096.12726</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>37578.8322</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>34379.33020999999</v>
+        <v>34379.33021</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>42668.75993</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>42718.08844</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>105910.365</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>5716.87584</v>
       </c>
       <c r="D100" s="22" t="n">
-        <v>4842.960039999999</v>
+        <v>4842.96004</v>
       </c>
       <c r="E100" s="22" t="n">
         <v>6121.48033</v>
@@ -5298,7 +5223,7 @@
         <v>15794.02919</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>12066.61455</v>
+        <v>12076.33935</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>19458.48998</v>
@@ -5307,14 +5232,19 @@
         <v>18329.23872</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>30685.84403</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>30737.63683</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>90711.287</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>123.84145</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>350.313</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>102.46274</v>
@@ -5372,13 +5307,13 @@
         <v>121.74079</v>
       </c>
       <c r="H102" s="21" t="n">
-        <v>89.89579999999999</v>
+        <v>89.89580000000002</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>94.81141</v>
+        <v>94.81141000000001</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>88.94271999999998</v>
+        <v>88.94271999999999</v>
       </c>
       <c r="K102" s="22" t="n">
         <v>78.17797999999999</v>
@@ -5387,14 +5322,19 @@
         <v>84.96087</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>100.68132</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>105.77553</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>189.285</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -5418,7 +5358,7 @@
         <v>1044.60894</v>
       </c>
       <c r="J103" s="21" t="n">
-        <v>274.57039</v>
+        <v>733.8309199999999</v>
       </c>
       <c r="K103" s="22" t="n">
         <v>362.08359</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>327.63338</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>361.475</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>8245.0499</v>
@@ -5443,38 +5388,43 @@
         <v>9949.80726</v>
       </c>
       <c r="E104" s="22" t="n">
-        <v>11337.81682</v>
+        <v>11341.63082</v>
       </c>
       <c r="F104" s="21" t="n">
-        <v>12828.35826</v>
+        <v>12834.77904</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>17399.38254</v>
+        <v>17405.80332</v>
       </c>
       <c r="H104" s="21" t="n">
         <v>18197.45803</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>24439.56372</v>
+        <v>24464.6583</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>23220.04294</v>
+        <v>23419.69695</v>
       </c>
       <c r="K104" s="22" t="n">
         <v>25403.66155</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>26716.05258000001</v>
+        <v>26716.05258</v>
       </c>
       <c r="M104" s="22" t="n">
         <v>27410.88997</v>
       </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+      <c r="N104" s="22" t="n">
+        <v>38831.196</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>5369.32396</v>
@@ -5483,13 +5433,13 @@
         <v>7081.58266</v>
       </c>
       <c r="E105" s="22" t="n">
-        <v>5988.30341</v>
+        <v>5990.25641</v>
       </c>
       <c r="F105" s="21" t="n">
-        <v>2891.30569</v>
+        <v>2893.25869</v>
       </c>
       <c r="G105" s="22" t="n">
-        <v>3558.48174</v>
+        <v>3560.43474</v>
       </c>
       <c r="H105" s="21" t="n">
         <v>24500.6608</v>
@@ -5501,7 +5451,7 @@
         <v>1902.90705</v>
       </c>
       <c r="K105" s="22" t="n">
-        <v>3683.42036</v>
+        <v>3683.420360000001</v>
       </c>
       <c r="L105" s="22" t="n">
         <v>2616.75904</v>
@@ -5509,12 +5459,17 @@
       <c r="M105" s="22" t="n">
         <v>1866.37672</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>2374.581</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>5132.81684</v>
@@ -5523,7 +5478,7 @@
         <v>6318.354699999999</v>
       </c>
       <c r="E106" s="22" t="n">
-        <v>8693.640600000001</v>
+        <v>8693.640599999999</v>
       </c>
       <c r="F106" s="21" t="n">
         <v>8418.69073</v>
@@ -5535,10 +5490,10 @@
         <v>28952.01814</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>38784.5961</v>
+        <v>38794.88262999999</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>11986.28455</v>
+        <v>12190.58973</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>11497.00126</v>
@@ -5547,14 +5502,19 @@
         <v>13985.5786</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>17967.53001</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>17975.08851</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>27302.772</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>57.7638</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>121.02307</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>395</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>1922.91274</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>15</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>1922.91274</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,15 +5819,20 @@
       <c r="M113" s="22" t="n">
         <v>15</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
-        <v>6246.76214</v>
+        <v>6247.27592</v>
       </c>
       <c r="D114" s="23" t="n">
         <v>2854.68367</v>
@@ -5846,19 +5841,19 @@
         <v>2638.14374</v>
       </c>
       <c r="F114" s="33" t="n">
-        <v>2853.3013</v>
+        <v>2866.51181</v>
       </c>
       <c r="G114" s="23" t="n">
-        <v>5296.05096</v>
+        <v>5301.79555</v>
       </c>
       <c r="H114" s="33" t="n">
         <v>8255.355589999999</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>20126.21259</v>
+        <v>20126.28962</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>16119.11255</v>
+        <v>16409.11255</v>
       </c>
       <c r="K114" s="23" t="n">
         <v>17706.64597</v>
@@ -5869,15 +5864,20 @@
       <c r="M114" s="23" t="n">
         <v>19863.13847</v>
       </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+      <c r="N114" s="23" t="n">
+        <v>24566.156</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
-        <v>815.93025</v>
+        <v>816.44403</v>
       </c>
       <c r="D115" s="22" t="n">
         <v>1313.9335</v>
@@ -5886,16 +5886,16 @@
         <v>1074.5049</v>
       </c>
       <c r="F115" s="21" t="n">
-        <v>1575.21693</v>
+        <v>1588.42744</v>
       </c>
       <c r="G115" s="22" t="n">
-        <v>4006.75703</v>
+        <v>4012.50162</v>
       </c>
       <c r="H115" s="21" t="n">
         <v>7700.800050000001</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>18668.0512</v>
+        <v>18668.12823</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>16119.11255</v>
@@ -5909,15 +5909,20 @@
       <c r="M115" s="22" t="n">
         <v>19863.13847</v>
       </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+      <c r="N115" s="22" t="n">
+        <v>24565.993</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
-        <v>5430.83189</v>
+        <v>5430.831889999999</v>
       </c>
       <c r="D116" s="22" t="n">
         <v>1540.75017</v>
@@ -5938,7 +5943,7 @@
         <v>1458.16139</v>
       </c>
       <c r="J116" s="21" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="K116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>0</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>30972.48462</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>33579.59</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>7.281899999999999</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>16.704</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>3.84342</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,49 +6404,57 @@
       <c r="M126" s="22" t="n">
         <v>30961.3593</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>33562.805</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
-        <v>374887.45892</v>
+        <v>378634.96544</v>
       </c>
       <c r="D127" s="23" t="n">
-        <v>402585.36888</v>
+        <v>407776.94255</v>
       </c>
       <c r="E127" s="23" t="n">
-        <v>554036.6395899999</v>
+        <v>561382.1819099999</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>640434.2815899999</v>
+        <v>648682.51173</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>896259.5266999999</v>
+        <v>909075.75474</v>
       </c>
       <c r="H127" s="33" t="n">
         <v>1238026.35147</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>1672443.59822</v>
+        <v>1673811.40227</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>1346593.53375</v>
+        <v>1356508.14972</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>1509959.87796</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>2222431.97463</v>
+        <v>2222432.22817</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>2554668.96184</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>2566977.1122</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>3444404.363</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>032-Aquaculture</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,67 +6553,77 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
-        <v>242539.04338</v>
+        <v>243768.13239</v>
       </c>
       <c r="D132" s="23" t="n">
-        <v>240984.43549</v>
+        <v>243492.83107</v>
       </c>
       <c r="E132" s="23" t="n">
-        <v>329488.09234</v>
+        <v>334086.50386</v>
       </c>
       <c r="F132" s="33" t="n">
-        <v>355998.33245</v>
+        <v>361012.81087</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>565917.58575</v>
+        <v>573087.77396</v>
       </c>
       <c r="H132" s="33" t="n">
         <v>821446.9774</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>1149741.39703</v>
+        <v>1150074.44791</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>834433.24745</v>
+        <v>836454.62298</v>
       </c>
       <c r="K132" s="23" t="n">
-        <v>791756.62394</v>
+        <v>791756.6239400001</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>1350650.44246</v>
+        <v>1350651.44246</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>1550778.04273</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>1557666.13014</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>1932346.87</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
-        <v>41937.42023</v>
+        <v>41953.11338</v>
       </c>
       <c r="D133" s="23" t="n">
-        <v>53438.93746</v>
+        <v>53438.93745999999</v>
       </c>
       <c r="E133" s="23" t="n">
-        <v>84452.60711</v>
+        <v>84452.60711000001</v>
       </c>
       <c r="F133" s="33" t="n">
         <v>67377.15527</v>
       </c>
       <c r="G133" s="23" t="n">
-        <v>89225.17799000001</v>
+        <v>89225.17799</v>
       </c>
       <c r="H133" s="33" t="n">
         <v>116143.41645</v>
@@ -6559,17 +6641,22 @@
         <v>212343.78667</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>256646.48419</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>256646.48521</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>373983.429</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
-        <v>41769.41622</v>
+        <v>41785.10937000001</v>
       </c>
       <c r="D134" s="22" t="n">
         <v>48945.37385</v>
@@ -6599,14 +6686,19 @@
         <v>207487.47203</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>249751.0796</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>249751.08062</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>365994.387</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>184.20227</v>
@@ -6618,7 +6710,7 @@
         <v>398.8743</v>
       </c>
       <c r="F135" s="21" t="n">
-        <v>889.0674600000001</v>
+        <v>889.06746</v>
       </c>
       <c r="G135" s="22" t="n">
         <v>794.23373</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>5044.29187</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>6285.705</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>69.30825999999999</v>
@@ -6676,17 +6773,22 @@
         <v>234.25388</v>
       </c>
       <c r="L136" s="22" t="n">
-        <v>468.7822</v>
+        <v>468.7821999999999</v>
       </c>
       <c r="M136" s="22" t="n">
         <v>839.4317600000001</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>1049.275</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>53.11</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>649.63702</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>1604.712</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>0</v>
@@ -6921,36 +7048,41 @@
       <c r="M142" s="22" t="n">
         <v>2040.90746</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>1147.9</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
-        <v>144873.74993</v>
+        <v>146077.18978</v>
       </c>
       <c r="D143" s="46" t="n">
-        <v>123405.97308</v>
+        <v>125900.53568</v>
       </c>
       <c r="E143" s="46" t="n">
-        <v>158905.95965</v>
+        <v>162991.85007</v>
       </c>
       <c r="F143" s="45" t="n">
-        <v>200272.44641</v>
+        <v>205270.64359</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>297548.75496</v>
+        <v>304699.17649</v>
       </c>
       <c r="H143" s="45" t="n">
         <v>294102.5361799999</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>465471.61612</v>
+        <v>465479.86189</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>438657.72404</v>
+        <v>440608.83879</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>448400.05407</v>
@@ -6959,38 +7091,43 @@
         <v>722510.6162899999</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>909839.11112</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>910999.2893399999</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>1045933.237</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
-        <v>75444.90515999999</v>
+        <v>76463.34500999999</v>
       </c>
       <c r="D144" s="25" t="n">
-        <v>83710.0184</v>
+        <v>85809.48035</v>
       </c>
       <c r="E144" s="25" t="n">
-        <v>102269.85645</v>
+        <v>105072.77662</v>
       </c>
       <c r="F144" s="24" t="n">
-        <v>122432.72328</v>
+        <v>127430.92046</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>194394.2762</v>
+        <v>200301.78636</v>
       </c>
       <c r="H144" s="24" t="n">
         <v>156154.58714</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>207148.80821</v>
+        <v>207152.55198</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>249182.22105</v>
+        <v>251133.3358</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>263362.52409</v>
@@ -6999,29 +7136,34 @@
         <v>469845.9654700001</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>662895.87295</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>664051.2537</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>787138.556</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
-        <v>58511.31849</v>
+        <v>58696.31849000001</v>
       </c>
       <c r="D145" s="25" t="n">
-        <v>27101.14279</v>
+        <v>27496.24344</v>
       </c>
       <c r="E145" s="25" t="n">
-        <v>41221.91402</v>
+        <v>42504.88427</v>
       </c>
       <c r="F145" s="24" t="n">
-        <v>64917.55214999999</v>
+        <v>64917.55215</v>
       </c>
       <c r="G145" s="25" t="n">
-        <v>83538.29309000001</v>
+        <v>84781.20446000001</v>
       </c>
       <c r="H145" s="24" t="n">
         <v>134206.22884</v>
@@ -7041,12 +7183,17 @@
       <c r="M145" s="25" t="n">
         <v>243508.65415</v>
       </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+      <c r="N145" s="25" t="n">
+        <v>254440.523</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>5086</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>5831.52628</v>
@@ -7147,7 +7304,7 @@
         <v>3655.7202</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>3770.37303</v>
+        <v>3774.87503</v>
       </c>
       <c r="J148" s="24" t="n">
         <v>2453.95055</v>
@@ -7159,14 +7316,19 @@
         <v>3862.62325</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>3434.584019999999</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>3439.38149</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>4354.158</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>42966.05348</v>
@@ -7187,29 +7349,34 @@
         <v>367578.36966</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>437570.074</v>
+        <v>437779.01252</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>123581.35411</v>
+        <v>123586.28244</v>
       </c>
       <c r="K149" s="23" t="n">
-        <v>84993.44285000001</v>
+        <v>84993.44284999999</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>272528.58284</v>
+        <v>272529.58284</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>199255.23964</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>203323.40198</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>226661.109</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
-        <v>38701.06612999999</v>
+        <v>38701.06613</v>
       </c>
       <c r="D150" s="22" t="n">
         <v>38854.17627</v>
@@ -7224,29 +7391,34 @@
         <v>34018.37975</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>48385.48368</v>
+        <v>48385.48367999999</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>49176.13284000001</v>
+        <v>49384.32137</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>99761.01983</v>
+        <v>99765.94816</v>
       </c>
       <c r="K150" s="22" t="n">
-        <v>62689.79322000001</v>
+        <v>62689.79322</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>228248.43852</v>
+        <v>228249.43852</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>128479.681</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>131263.44143</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>140966.182</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>26746.3349</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>34490.352</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>844.27771</v>
@@ -7335,7 +7517,7 @@
         <v>943.4351899999999</v>
       </c>
       <c r="E153" s="22" t="n">
-        <v>945.8564300000002</v>
+        <v>945.85643</v>
       </c>
       <c r="F153" s="21" t="n">
         <v>1460.23883</v>
@@ -7361,12 +7543,17 @@
       <c r="M153" s="22" t="n">
         <v>14377.02581</v>
       </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+      <c r="N153" s="22" t="n">
+        <v>20229.65</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>3420.70964</v>
@@ -7384,10 +7571,10 @@
         <v>90433.39138</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>309176.1961800001</v>
+        <v>309176.19618</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>377286.29379</v>
+        <v>377287.0437799999</v>
       </c>
       <c r="J154" s="21" t="n">
         <v>13586.70872</v>
@@ -7399,14 +7586,19 @@
         <v>23530.99351</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>29652.19793</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>30936.59984</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>30974.925</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>8410.736080000001</v>
@@ -7455,7 +7652,7 @@
         <v>10819.18445</v>
       </c>
       <c r="E156" s="23" t="n">
-        <v>19163.34448</v>
+        <v>19656.07948</v>
       </c>
       <c r="F156" s="33" t="n">
         <v>19081.54171</v>
@@ -7467,7 +7664,7 @@
         <v>32490.19457</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>49450.67166000001</v>
+        <v>49512.67166</v>
       </c>
       <c r="J156" s="33" t="n">
         <v>59945.5599</v>
@@ -7479,23 +7676,28 @@
         <v>105035.51836</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>133073.62806</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>134538.91865</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>192902.502</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>6240.807900000001</v>
       </c>
       <c r="D157" s="22" t="n">
-        <v>9097.589120000001</v>
+        <v>9097.589119999999</v>
       </c>
       <c r="E157" s="22" t="n">
-        <v>18315.33484</v>
+        <v>18808.06984</v>
       </c>
       <c r="F157" s="21" t="n">
         <v>12464.79171</v>
@@ -7507,7 +7709,7 @@
         <v>32485.86235</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>49428.41056</v>
+        <v>49490.41056</v>
       </c>
       <c r="J157" s="21" t="n">
         <v>59944.1099</v>
@@ -7519,14 +7721,19 @@
         <v>105035.51836</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>133073.62806</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>134538.91865</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>192815.734</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>2169.92818</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>86.768</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,36 +7903,41 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
-        <v>3022.54368</v>
+        <v>3032.49969</v>
       </c>
       <c r="D162" s="23" t="n">
-        <v>4447.307</v>
+        <v>4461.139980000001</v>
       </c>
       <c r="E162" s="23" t="n">
-        <v>6087.978450000001</v>
+        <v>6107.764550000001</v>
       </c>
       <c r="F162" s="33" t="n">
-        <v>6483.89067</v>
+        <v>6500.17191</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>7506.47127</v>
+        <v>7526.237950000001</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>6730.376730000001</v>
+        <v>6730.37673</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>10425.47521</v>
+        <v>10479.3418</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>11025.79548</v>
+        <v>11088.61299</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>25058.53694</v>
@@ -7719,38 +7946,43 @@
         <v>27514.25062</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>37447.50122999999</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>37617.69852</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>67596.289</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
-        <v>1275.76887</v>
+        <v>1278.16806</v>
       </c>
       <c r="D163" s="22" t="n">
-        <v>1552.87921</v>
+        <v>1557.09548</v>
       </c>
       <c r="E163" s="22" t="n">
-        <v>3021.63951</v>
+        <v>3028.13687</v>
       </c>
       <c r="F163" s="21" t="n">
-        <v>3360.46113</v>
+        <v>3369.66153</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>3344.37645</v>
+        <v>3346.26774</v>
       </c>
       <c r="H163" s="21" t="n">
         <v>3010.59055</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>5779.76562</v>
+        <v>5806.66469</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>4308.393099999999</v>
+        <v>4371.210609999999</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>15948.12295</v>
@@ -7759,35 +7991,40 @@
         <v>11426.23391</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>22923.76807</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>23079.49916</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>31955.12</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
-        <v>1232.28306</v>
+        <v>1239.83988</v>
       </c>
       <c r="D164" s="22" t="n">
-        <v>1579.43246</v>
+        <v>1589.04917</v>
       </c>
       <c r="E164" s="22" t="n">
-        <v>1917.51017</v>
+        <v>1930.79891</v>
       </c>
       <c r="F164" s="21" t="n">
-        <v>1807.00958</v>
+        <v>1814.09042</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>2296.31617</v>
+        <v>2314.19156</v>
       </c>
       <c r="H164" s="21" t="n">
         <v>1935.28941</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>2531.71843</v>
+        <v>2558.68595</v>
       </c>
       <c r="J164" s="21" t="n">
         <v>3234.61964</v>
@@ -7799,14 +8036,19 @@
         <v>5051.55872</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>8602.61558</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>8616.572779999999</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>10097.456</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>485.6387</v>
@@ -7839,14 +8081,19 @@
         <v>10983.54377</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>5795.73419</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>5795.734189999999</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>25368.806</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>28.85305</v>
@@ -7879,14 +8126,19 @@
         <v>52.91422</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>125.38339</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>125.89239</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>174.907</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>1136.77512</v>
@@ -7910,23 +8162,28 @@
         <v>2491.56485</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>2975.86579</v>
+        <v>2978.38073</v>
       </c>
       <c r="K167" s="23" t="n">
         <v>3204.41384</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>5756.281030000001</v>
+        <v>5756.28103</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>6538.21698</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>6562.474929999999</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>11681.684</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>1831.54934</v>
@@ -7950,7 +8207,7 @@
         <v>8572.526780000002</v>
       </c>
       <c r="J168" s="21" t="n">
-        <v>10406.78974</v>
+        <v>10857.54512</v>
       </c>
       <c r="K168" s="22" t="n">
         <v>14471.71563</v>
@@ -7959,14 +8216,19 @@
         <v>16645.10371</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>19969.03912</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>19996.34803</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>47477.715</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>694.77422</v>
@@ -7987,10 +8249,10 @@
         <v>4064.93292</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>6080.96193</v>
+        <v>6080.961929999999</v>
       </c>
       <c r="J169" s="21" t="n">
-        <v>7430.92395</v>
+        <v>7879.164390000001</v>
       </c>
       <c r="K169" s="22" t="n">
         <v>11267.30179</v>
@@ -7999,14 +8261,19 @@
         <v>10888.82289</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>13430.82235</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>13433.87331</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>35866.965</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>41.663</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>0.00021</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>29.271</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>144.66495</v>
@@ -8141,7 +8423,7 @@
         <v>1080.35572</v>
       </c>
       <c r="G173" s="23" t="n">
-        <v>663.0460199999999</v>
+        <v>663.04602</v>
       </c>
       <c r="H173" s="33" t="n">
         <v>1556.16979</v>
@@ -8159,14 +8441,19 @@
         <v>4586.054419999999</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>7859.60217</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>7859.602170000001</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>13495.543</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>1.48305</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>136.0393</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>143.1819</v>
@@ -8221,7 +8513,7 @@
         <v>1080.35572</v>
       </c>
       <c r="G175" s="22" t="n">
-        <v>661.0460199999999</v>
+        <v>661.04602</v>
       </c>
       <c r="H175" s="21" t="n">
         <v>1554.16979</v>
@@ -8241,12 +8533,17 @@
       <c r="M175" s="22" t="n">
         <v>7723.56287</v>
       </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+      <c r="N175" s="22" t="n">
+        <v>13495.543</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>47.09990999999999</v>
@@ -8281,12 +8578,17 @@
       <c r="M176" s="23" t="n">
         <v>118.25934</v>
       </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+      <c r="N176" s="23" t="n">
+        <v>93.077</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>47.09990999999999</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>71.379</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>116.84104</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>6.127</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>1.4183</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>15.571</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,27 +8803,32 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
-        <v>44457.73247</v>
+        <v>44845.23247</v>
       </c>
       <c r="D182" s="23" t="n">
-        <v>44555.99807</v>
+        <v>44897.88705</v>
       </c>
       <c r="E182" s="23" t="n">
-        <v>56115.97504</v>
+        <v>56630.36402</v>
       </c>
       <c r="F182" s="33" t="n">
-        <v>79330.17783000002</v>
+        <v>79819.67783</v>
       </c>
       <c r="G182" s="23" t="n">
-        <v>86183.45810999999</v>
+        <v>89056.67711</v>
       </c>
       <c r="H182" s="33" t="n">
         <v>122454.13545</v>
@@ -8519,29 +8846,34 @@
         <v>290760.63656</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>286024.2780999999</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>286025.44263</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>484318.345</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
-        <v>34259.17289</v>
+        <v>34646.67289</v>
       </c>
       <c r="D183" s="23" t="n">
-        <v>37309.10108</v>
+        <v>37650.99006</v>
       </c>
       <c r="E183" s="23" t="n">
-        <v>46076.67972</v>
+        <v>46591.0687</v>
       </c>
       <c r="F183" s="33" t="n">
-        <v>46813.44701999999</v>
+        <v>47302.94701999999</v>
       </c>
       <c r="G183" s="23" t="n">
-        <v>50888.01807</v>
+        <v>53761.23707</v>
       </c>
       <c r="H183" s="33" t="n">
         <v>84974.99596</v>
@@ -8556,35 +8888,40 @@
         <v>228586.64922</v>
       </c>
       <c r="L183" s="23" t="n">
-        <v>256955.18755</v>
+        <v>256955.1875499999</v>
       </c>
       <c r="M183" s="23" t="n">
         <v>245066.11125</v>
       </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+      <c r="N183" s="23" t="n">
+        <v>442801.686</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
-        <v>28506.78613</v>
+        <v>28894.28613</v>
       </c>
       <c r="D184" s="22" t="n">
-        <v>35071.5595</v>
+        <v>35413.44848000001</v>
       </c>
       <c r="E184" s="22" t="n">
-        <v>43401.9519</v>
+        <v>43916.34088</v>
       </c>
       <c r="F184" s="21" t="n">
-        <v>44224.92924</v>
+        <v>44714.42924</v>
       </c>
       <c r="G184" s="22" t="n">
-        <v>47922.82265</v>
+        <v>50796.04165</v>
       </c>
       <c r="H184" s="21" t="n">
-        <v>77519.90539999999</v>
+        <v>77519.9054</v>
       </c>
       <c r="I184" s="22" t="n">
         <v>130353.00537</v>
@@ -8601,12 +8938,17 @@
       <c r="M184" s="22" t="n">
         <v>239491.19414</v>
       </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+      <c r="N184" s="22" t="n">
+        <v>442794.786</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>6386.78595</v>
@@ -8641,15 +8983,20 @@
       <c r="M185" s="22" t="n">
         <v>6245.308859999999</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
-        <v>634.3991900000001</v>
+        <v>634.39919</v>
       </c>
       <c r="D186" s="22" t="n">
         <v>228.31192</v>
@@ -8679,14 +9026,19 @@
         <v>1344.73403</v>
       </c>
       <c r="M186" s="22" t="n">
-        <v>670.39175</v>
-      </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+        <v>670.3917499999999</v>
+      </c>
+      <c r="N186" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>3526.42706</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>6829.85096</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>7528.341</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>0</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>1496.66024</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>143.117</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>3524.42706</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>4637.749</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>6689.782</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>2</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>695.4417199999999</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>695.442</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>6502.43059</v>
@@ -9119,14 +9521,19 @@
         <v>26472.41542</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>29630.70693</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>29631.87146</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>29520.919</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>6502.06367</v>
@@ -9159,14 +9566,19 @@
         <v>25738.45747</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>29339.95152</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>29341.11605</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>29229.676</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>225.62193</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>151.262</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0.36692</v>
@@ -9350,23 +9782,28 @@
         <v>344.2748</v>
       </c>
       <c r="J203" s="21" t="n">
-        <v>868.8205800000001</v>
+        <v>868.8205799999999</v>
       </c>
       <c r="K203" s="22" t="n">
-        <v>720.2186999999999</v>
+        <v>720.2187000000001</v>
       </c>
       <c r="L203" s="22" t="n">
-        <v>675.96695</v>
+        <v>675.9669500000001</v>
       </c>
       <c r="M203" s="22" t="n">
         <v>65.13348000000001</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>139.981</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>161.36772</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>1715.08079</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>1208.249</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>161.36772</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>1715.08079</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>1208.249</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>0.42462</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>0.42462</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>7.909590000000001</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>2782.52817</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>3259.042</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>7.909590000000001</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>104.3625</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>916.667</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>2678.16567</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>2342.375</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,76 +10378,86 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
-        <v>87890.68307</v>
+        <v>90021.60058000001</v>
       </c>
       <c r="D217" s="23" t="n">
-        <v>117044.93532</v>
+        <v>119386.22443</v>
       </c>
       <c r="E217" s="23" t="n">
-        <v>168432.57221</v>
+        <v>170665.31403</v>
       </c>
       <c r="F217" s="33" t="n">
-        <v>205105.77131</v>
+        <v>207850.02303</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>244158.48284</v>
+        <v>246931.30367</v>
       </c>
       <c r="H217" s="33" t="n">
         <v>294125.23862</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>341178.10489</v>
+        <v>342212.8580599999</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>365769.98356</v>
+        <v>373663.224</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>460117.65507</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>581020.89561</v>
+        <v>581020.14915</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>717866.64101</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>723285.53943</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>1027739.148</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
-        <v>83943.46946000001</v>
+        <v>86502.46946000001</v>
       </c>
       <c r="D218" s="23" t="n">
-        <v>107050.71414</v>
+        <v>110050.71414</v>
       </c>
       <c r="E218" s="23" t="n">
-        <v>125839.57054</v>
+        <v>128839.57054</v>
       </c>
       <c r="F218" s="33" t="n">
-        <v>138689.86208</v>
+        <v>142070.86208</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>175870.6435</v>
+        <v>179251.6435</v>
       </c>
       <c r="H218" s="33" t="n">
         <v>264046.65706</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>285919.62035</v>
+        <v>286234.08147</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>224572.11388</v>
+        <v>229767.11388</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>236264.09091</v>
@@ -9959,57 +10466,67 @@
         <v>274212.91355</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>297783.85386</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>303136.35386</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>403655.175</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
-        <v>91047.99777000002</v>
+        <v>94047.99777000002</v>
       </c>
       <c r="D219" s="22" t="n">
-        <v>122802.96759</v>
+        <v>125802.96759</v>
       </c>
       <c r="E219" s="22" t="n">
-        <v>144639.91659</v>
+        <v>147639.91659</v>
       </c>
       <c r="F219" s="21" t="n">
-        <v>158797.3006</v>
+        <v>162797.3006</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>186184.62205</v>
+        <v>190184.62205</v>
       </c>
       <c r="H219" s="21" t="n">
         <v>274057.91139</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>300939.0888</v>
+        <v>301245.16358</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>238567.62538</v>
+        <v>243762.62538</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>250662.69039</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>300900.19138</v>
+        <v>300910.19138</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>307386.9004</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>314301.9004</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>431427.48</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
-        <v>12667.77125</v>
+        <v>13108.77125</v>
       </c>
       <c r="D220" s="22" t="n">
         <v>19239.54947</v>
@@ -10018,10 +10535,10 @@
         <v>22118.44305</v>
       </c>
       <c r="F220" s="21" t="n">
-        <v>23330.50313</v>
+        <v>23949.50312999999</v>
       </c>
       <c r="G220" s="22" t="n">
-        <v>14078.70577</v>
+        <v>14697.70577</v>
       </c>
       <c r="H220" s="21" t="n">
         <v>13461.62189</v>
@@ -10036,17 +10553,22 @@
         <v>16976.74486</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>29202.54101</v>
+        <v>29212.54101</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>12059.20437</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>13621.70437</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>30228.466</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>5563.242939999999</v>
@@ -10067,7 +10589,7 @@
         <v>3450.36756</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>2952.3638</v>
+        <v>2960.75014</v>
       </c>
       <c r="J221" s="21" t="n">
         <v>2844.80075</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>2524.69522</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>2524.698</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>68.53739</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>68.53700000000001</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>2717.84411</v>
@@ -10135,13 +10667,13 @@
         <v>1957.26859</v>
       </c>
       <c r="E223" s="23" t="n">
-        <v>21313.77222</v>
+        <v>21313.77222000001</v>
       </c>
       <c r="F223" s="33" t="n">
         <v>26937.25703</v>
       </c>
       <c r="G223" s="23" t="n">
-        <v>52952.07407000001</v>
+        <v>52952.07407</v>
       </c>
       <c r="H223" s="33" t="n">
         <v>48033.21902</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>171709.00148</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>223315.777</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>96942.13268000001</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>102310.238</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>12.28876</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>1383.44026</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>1383.44</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>20333.77401</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>19101.852</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>2705.55535</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>53049.65453</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>100520.247</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>3537.7085</v>
@@ -10467,35 +11039,40 @@
         <v>19047.39172</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>24012.17882</v>
+        <v>24102.86826</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>40404.25511</v>
+        <v>41160.14528</v>
       </c>
       <c r="K231" s="23" t="n">
-        <v>44417.15013</v>
+        <v>44417.15012999999</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>41917.19014</v>
+        <v>41917.19013999999</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>109930.9473</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>110001.28956</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>118399.305</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
-        <v>460.0015599999999</v>
+        <v>460.00156</v>
       </c>
       <c r="D232" s="22" t="n">
         <v>531.29689</v>
       </c>
       <c r="E232" s="22" t="n">
-        <v>578.19006</v>
+        <v>578.1900599999999</v>
       </c>
       <c r="F232" s="21" t="n">
         <v>1520.53725</v>
@@ -10507,26 +11084,31 @@
         <v>1976.09899</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>3442.82236</v>
+        <v>3497.62143</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>6707.965439999999</v>
+        <v>7221.26046</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>6341.50418</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>7692.234889999999</v>
+        <v>7692.234890000001</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>7936.46377</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>8006.806030000001</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>9615.313</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>152.81007</v>
@@ -10535,7 +11117,7 @@
         <v>148.41515</v>
       </c>
       <c r="E233" s="22" t="n">
-        <v>526.2896499999999</v>
+        <v>526.2896500000001</v>
       </c>
       <c r="F233" s="21" t="n">
         <v>139.03388</v>
@@ -10550,7 +11132,7 @@
         <v>479.6811900000001</v>
       </c>
       <c r="J233" s="21" t="n">
-        <v>479.25104</v>
+        <v>479.6811900000001</v>
       </c>
       <c r="K233" s="22" t="n">
         <v>1013.44709</v>
@@ -10559,14 +11141,19 @@
         <v>392.33388</v>
       </c>
       <c r="M233" s="22" t="n">
-        <v>325.1903100000001</v>
-      </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+        <v>325.19031</v>
+      </c>
+      <c r="N233" s="22" t="n">
+        <v>323.212</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>1229.31867</v>
@@ -10575,7 +11162,7 @@
         <v>1654.08409</v>
       </c>
       <c r="E234" s="22" t="n">
-        <v>2357.087309999999</v>
+        <v>2357.08731</v>
       </c>
       <c r="F234" s="21" t="n">
         <v>8864.53154</v>
@@ -10587,7 +11174,7 @@
         <v>12026.31893</v>
       </c>
       <c r="I234" s="22" t="n">
-        <v>12140.75916</v>
+        <v>12176.64953</v>
       </c>
       <c r="J234" s="21" t="n">
         <v>23867.5174</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>17729.66786</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>17010.769</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>8.150079999999999</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>1947.66764</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>1947.668</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>1687.42812</v>
@@ -10670,7 +11267,7 @@
         <v>6001.24847</v>
       </c>
       <c r="J236" s="21" t="n">
-        <v>7401.85359</v>
+        <v>7644.01859</v>
       </c>
       <c r="K236" s="22" t="n">
         <v>8041.73809</v>
@@ -10681,12 +11278,17 @@
       <c r="M236" s="22" t="n">
         <v>81991.95772000001</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>89502.34299999999</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>18399.78441</v>
@@ -10707,10 +11309,10 @@
         <v>66405.32166</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>94772.34234</v>
+        <v>95528.04306</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>86100.66353000001</v>
+        <v>86009.4129</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>108532.79402</v>
@@ -10719,38 +11321,43 @@
         <v>126566.30734</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>226341.17179</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>226363.05153</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>373815.616</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
-        <v>-20115.35537</v>
+        <v>-20130.10909</v>
       </c>
       <c r="D238" s="23" t="n">
-        <v>-28805.17755</v>
+        <v>-29233.26004</v>
       </c>
       <c r="E238" s="23" t="n">
-        <v>-32428.65657</v>
+        <v>-33087.36746</v>
       </c>
       <c r="F238" s="33" t="n">
-        <v>-35905.79001</v>
+        <v>-36673.04818999999</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-53451.28292999999</v>
+        <v>-54084.29529</v>
       </c>
       <c r="H238" s="33" t="n">
         <v>-109071.36318</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-147921.94076</v>
+        <v>-148056.6685</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-76690.22476000001</v>
+        <v>-76648.17278000001</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-100103.41954</v>
@@ -10759,54 +11366,64 @@
         <v>-101676.18431</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-152943.73296</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-152982.83498</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-219743.567</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
-        <v>-592.76804</v>
+        <v>-1006.09681</v>
       </c>
       <c r="D239" s="23" t="n">
-        <v>11084.8282</v>
+        <v>10854.1998</v>
       </c>
       <c r="E239" s="23" t="n">
-        <v>19541.39699</v>
+        <v>19432.8497</v>
       </c>
       <c r="F239" s="33" t="n">
-        <v>21318.40132</v>
+        <v>21448.91122</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>-9314.827100000002</v>
+        <v>-9289.993910000001</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>5664.012340000002</v>
+        <v>5664.012339999997</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-19120.54604</v>
+        <v>-19111.91641</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>36219.03146000001</v>
+        <v>38210.58038</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>123447.78784</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>61173.74337</v>
+        <v>61172.99691000001</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>65045.39954</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>65058.67797999999</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>128296.842</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>9433.470019999999</v>
@@ -10818,19 +11435,19 @@
         <v>29700.19585</v>
       </c>
       <c r="F240" s="21" t="n">
-        <v>32915.59922</v>
+        <v>33046.10911999999</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>21019.90352</v>
+        <v>21044.73671</v>
       </c>
       <c r="H240" s="21" t="n">
         <v>35269.92741</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>54705.71379000001</v>
+        <v>54720.22613</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>50785.95473</v>
+        <v>52774.45117999999</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>165496.02891</v>
@@ -10839,23 +11456,28 @@
         <v>120097.05633</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>120723.60475</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>120775.83479</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>236523.142</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
-        <v>10026.23806</v>
+        <v>10439.56683</v>
       </c>
       <c r="D241" s="22" t="n">
-        <v>7305.656029999999</v>
+        <v>7536.28443</v>
       </c>
       <c r="E241" s="22" t="n">
-        <v>10158.79886</v>
+        <v>10267.34615</v>
       </c>
       <c r="F241" s="21" t="n">
         <v>11597.1979</v>
@@ -10867,63 +11489,71 @@
         <v>29605.91507</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>73826.25983000001</v>
+        <v>73832.14253999999</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>14566.92327</v>
+        <v>14563.8708</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>42048.24107</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>58923.31296</v>
+        <v>58924.05942</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>55678.20521</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>55717.15681</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>108226.3</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
-        <v>374887.4589199999</v>
+        <v>378634.96544</v>
       </c>
       <c r="D242" s="47" t="n">
-        <v>402585.36888</v>
+        <v>407776.94255</v>
       </c>
       <c r="E242" s="47" t="n">
-        <v>554036.63959</v>
+        <v>561382.1819099999</v>
       </c>
       <c r="F242" s="48" t="n">
-        <v>640434.28159</v>
+        <v>648682.51173</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>896259.5266999999</v>
+        <v>909075.75474</v>
       </c>
       <c r="H242" s="48" t="n">
         <v>1238026.35147</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>1672443.59822</v>
+        <v>1673811.40227</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>1346593.53375</v>
+        <v>1356508.14972</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>1509959.87796</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>2222431.97463</v>
+        <v>2222432.22817</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>2554668.96184</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>2566977.1122</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>3444404.363</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,49 +11567,55 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D244" s="52" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E244" s="52" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F244" s="53" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H244" s="53" t="n">
         <v>250</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>228</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>224</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>240</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>274</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>